--- a/excel-sheets/updated-arm-study-data2.xlsx
+++ b/excel-sheets/updated-arm-study-data2.xlsx
@@ -415,7 +415,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G190"/>
+  <dimension ref="A1:C190"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,10 +436,10 @@
           <t>1_competency/discomfor_1</t>
         </is>
       </c>
-      <c r="F2" t="n">
-        <v>9</v>
-      </c>
-      <c r="G2" t="n">
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -449,10 +449,10 @@
           <t>1_competency/discomfor_2</t>
         </is>
       </c>
-      <c r="F3" t="n">
-        <v>9</v>
-      </c>
-      <c r="G3" t="n">
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -462,10 +462,10 @@
           <t>1_competency/discomfor_3</t>
         </is>
       </c>
-      <c r="F4" t="n">
-        <v>9</v>
-      </c>
-      <c r="G4" t="n">
+      <c r="B4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -475,10 +475,10 @@
           <t>1_competency/discomfor_4</t>
         </is>
       </c>
-      <c r="F5" t="n">
-        <v>9</v>
-      </c>
-      <c r="G5" t="n">
+      <c r="B5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -488,10 +488,10 @@
           <t>1_competency/discomfor_5</t>
         </is>
       </c>
-      <c r="F6" t="n">
-        <v>9</v>
-      </c>
-      <c r="G6" t="n">
+      <c r="B6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -501,10 +501,10 @@
           <t>1_competency/discomfor_6</t>
         </is>
       </c>
-      <c r="F7" t="n">
-        <v>9</v>
-      </c>
-      <c r="G7" t="n">
+      <c r="B7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -514,10 +514,10 @@
           <t>1_competency/discomfor_7</t>
         </is>
       </c>
-      <c r="F8" t="n">
-        <v>9</v>
-      </c>
-      <c r="G8" t="n">
+      <c r="B8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -528,21 +528,9 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>7</v>
-      </c>
-      <c r="D9" t="n">
-        <v>3</v>
-      </c>
-      <c r="E9" t="n">
-        <v>7</v>
-      </c>
-      <c r="F9" t="n">
-        <v>9</v>
-      </c>
-      <c r="G9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -553,21 +541,9 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>7</v>
-      </c>
-      <c r="D10" t="n">
-        <v>3</v>
-      </c>
-      <c r="E10" t="n">
-        <v>2</v>
-      </c>
-      <c r="F10" t="n">
-        <v>9</v>
-      </c>
-      <c r="G10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -578,21 +554,9 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>6</v>
-      </c>
-      <c r="D11" t="n">
-        <v>1</v>
-      </c>
-      <c r="E11" t="n">
-        <v>5</v>
-      </c>
-      <c r="F11" t="n">
-        <v>9</v>
-      </c>
-      <c r="G11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -603,21 +567,9 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>7</v>
-      </c>
-      <c r="D12" t="n">
-        <v>1</v>
-      </c>
-      <c r="E12" t="n">
-        <v>5</v>
-      </c>
-      <c r="F12" t="n">
-        <v>9</v>
-      </c>
-      <c r="G12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -628,21 +580,9 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>7</v>
-      </c>
-      <c r="D13" t="n">
-        <v>1</v>
-      </c>
-      <c r="E13" t="n">
-        <v>4</v>
-      </c>
-      <c r="F13" t="n">
-        <v>9</v>
-      </c>
-      <c r="G13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -653,21 +593,9 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>6</v>
-      </c>
-      <c r="D14" t="n">
-        <v>2</v>
-      </c>
-      <c r="E14" t="n">
-        <v>9</v>
-      </c>
-      <c r="F14" t="n">
-        <v>9</v>
-      </c>
-      <c r="G14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -678,21 +606,9 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C15" t="n">
-        <v>7</v>
-      </c>
-      <c r="D15" t="n">
-        <v>4</v>
-      </c>
-      <c r="E15" t="n">
-        <v>9</v>
-      </c>
-      <c r="F15" t="n">
-        <v>9</v>
-      </c>
-      <c r="G15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -706,18 +622,6 @@
         <v>1</v>
       </c>
       <c r="C16" t="n">
-        <v>6</v>
-      </c>
-      <c r="D16" t="n">
-        <v>7</v>
-      </c>
-      <c r="E16" t="n">
-        <v>1</v>
-      </c>
-      <c r="F16" t="n">
-        <v>9</v>
-      </c>
-      <c r="G16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -731,18 +635,6 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
-      </c>
-      <c r="D17" t="n">
-        <v>2</v>
-      </c>
-      <c r="E17" t="n">
-        <v>5</v>
-      </c>
-      <c r="F17" t="n">
-        <v>9</v>
-      </c>
-      <c r="G17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -753,21 +645,9 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
-      </c>
-      <c r="D18" t="n">
-        <v>8</v>
-      </c>
-      <c r="E18" t="n">
-        <v>6</v>
-      </c>
-      <c r="F18" t="n">
-        <v>9</v>
-      </c>
-      <c r="G18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -781,18 +661,6 @@
         <v>1</v>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
-      </c>
-      <c r="D19" t="n">
-        <v>3</v>
-      </c>
-      <c r="E19" t="n">
-        <v>3</v>
-      </c>
-      <c r="F19" t="n">
-        <v>9</v>
-      </c>
-      <c r="G19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -803,21 +671,9 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C20" t="n">
-        <v>5</v>
-      </c>
-      <c r="D20" t="n">
-        <v>2</v>
-      </c>
-      <c r="E20" t="n">
-        <v>1</v>
-      </c>
-      <c r="F20" t="n">
-        <v>5</v>
-      </c>
-      <c r="G20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -828,21 +684,9 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C21" t="n">
-        <v>1</v>
-      </c>
-      <c r="D21" t="n">
-        <v>4</v>
-      </c>
-      <c r="E21" t="n">
-        <v>5</v>
-      </c>
-      <c r="F21" t="n">
-        <v>5</v>
-      </c>
-      <c r="G21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -853,21 +697,9 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>5</v>
-      </c>
-      <c r="D22" t="n">
-        <v>2</v>
-      </c>
-      <c r="E22" t="n">
-        <v>1</v>
-      </c>
-      <c r="F22" t="n">
-        <v>5</v>
-      </c>
-      <c r="G22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -877,10 +709,10 @@
           <t>2_competency/discomfor_1</t>
         </is>
       </c>
-      <c r="F23" t="n">
-        <v>9</v>
-      </c>
-      <c r="G23" t="n">
+      <c r="B23" t="n">
+        <v>1</v>
+      </c>
+      <c r="C23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -890,10 +722,10 @@
           <t>2_competency/discomfor_2</t>
         </is>
       </c>
-      <c r="F24" t="n">
-        <v>9</v>
-      </c>
-      <c r="G24" t="n">
+      <c r="B24" t="n">
+        <v>1</v>
+      </c>
+      <c r="C24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -903,10 +735,10 @@
           <t>2_competency/discomfor_3</t>
         </is>
       </c>
-      <c r="F25" t="n">
-        <v>9</v>
-      </c>
-      <c r="G25" t="n">
+      <c r="B25" t="n">
+        <v>1</v>
+      </c>
+      <c r="C25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -916,10 +748,10 @@
           <t>2_competency/discomfor_4</t>
         </is>
       </c>
-      <c r="F26" t="n">
-        <v>9</v>
-      </c>
-      <c r="G26" t="n">
+      <c r="B26" t="n">
+        <v>1</v>
+      </c>
+      <c r="C26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -929,10 +761,10 @@
           <t>2_competency/discomfor_5</t>
         </is>
       </c>
-      <c r="F27" t="n">
-        <v>9</v>
-      </c>
-      <c r="G27" t="n">
+      <c r="B27" t="n">
+        <v>1</v>
+      </c>
+      <c r="C27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -942,10 +774,10 @@
           <t>2_competency/discomfor_6</t>
         </is>
       </c>
-      <c r="F28" t="n">
-        <v>9</v>
-      </c>
-      <c r="G28" t="n">
+      <c r="B28" t="n">
+        <v>1</v>
+      </c>
+      <c r="C28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -955,10 +787,10 @@
           <t>2_competency/discomfor_7</t>
         </is>
       </c>
-      <c r="F29" t="n">
-        <v>9</v>
-      </c>
-      <c r="G29" t="n">
+      <c r="B29" t="n">
+        <v>1</v>
+      </c>
+      <c r="C29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -969,21 +801,9 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C30" t="n">
-        <v>1</v>
-      </c>
-      <c r="D30" t="n">
-        <v>4</v>
-      </c>
-      <c r="E30" t="n">
-        <v>8</v>
-      </c>
-      <c r="F30" t="n">
-        <v>9</v>
-      </c>
-      <c r="G30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -994,21 +814,9 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C31" t="n">
-        <v>6</v>
-      </c>
-      <c r="D31" t="n">
-        <v>4</v>
-      </c>
-      <c r="E31" t="n">
-        <v>4</v>
-      </c>
-      <c r="F31" t="n">
-        <v>9</v>
-      </c>
-      <c r="G31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1019,21 +827,9 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>3</v>
-      </c>
-      <c r="D32" t="n">
-        <v>7</v>
-      </c>
-      <c r="E32" t="n">
-        <v>6</v>
-      </c>
-      <c r="F32" t="n">
-        <v>9</v>
-      </c>
-      <c r="G32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1044,21 +840,9 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C33" t="n">
-        <v>6</v>
-      </c>
-      <c r="D33" t="n">
-        <v>7</v>
-      </c>
-      <c r="E33" t="n">
-        <v>5</v>
-      </c>
-      <c r="F33" t="n">
-        <v>9</v>
-      </c>
-      <c r="G33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1069,21 +853,9 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C34" t="n">
-        <v>6</v>
-      </c>
-      <c r="D34" t="n">
-        <v>4</v>
-      </c>
-      <c r="E34" t="n">
-        <v>5</v>
-      </c>
-      <c r="F34" t="n">
-        <v>9</v>
-      </c>
-      <c r="G34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1094,21 +866,9 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C35" t="n">
-        <v>6</v>
-      </c>
-      <c r="D35" t="n">
-        <v>5</v>
-      </c>
-      <c r="E35" t="n">
-        <v>8</v>
-      </c>
-      <c r="F35" t="n">
-        <v>9</v>
-      </c>
-      <c r="G35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1119,21 +879,9 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C36" t="n">
-        <v>8</v>
-      </c>
-      <c r="D36" t="n">
-        <v>5</v>
-      </c>
-      <c r="E36" t="n">
-        <v>8</v>
-      </c>
-      <c r="F36" t="n">
-        <v>9</v>
-      </c>
-      <c r="G36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1144,21 +892,9 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>9</v>
-      </c>
-      <c r="D37" t="n">
-        <v>6</v>
-      </c>
-      <c r="E37" t="n">
-        <v>6</v>
-      </c>
-      <c r="F37" t="n">
-        <v>9</v>
-      </c>
-      <c r="G37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1169,21 +905,9 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C38" t="n">
-        <v>7</v>
-      </c>
-      <c r="D38" t="n">
-        <v>2</v>
-      </c>
-      <c r="E38" t="n">
-        <v>4</v>
-      </c>
-      <c r="F38" t="n">
-        <v>9</v>
-      </c>
-      <c r="G38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1194,21 +918,9 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C39" t="n">
-        <v>9</v>
-      </c>
-      <c r="D39" t="n">
-        <v>4</v>
-      </c>
-      <c r="E39" t="n">
-        <v>3</v>
-      </c>
-      <c r="F39" t="n">
-        <v>9</v>
-      </c>
-      <c r="G39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1219,21 +931,9 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C40" t="n">
-        <v>2</v>
-      </c>
-      <c r="D40" t="n">
-        <v>4</v>
-      </c>
-      <c r="E40" t="n">
-        <v>6</v>
-      </c>
-      <c r="F40" t="n">
-        <v>9</v>
-      </c>
-      <c r="G40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1244,21 +944,9 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C41" t="n">
-        <v>1</v>
-      </c>
-      <c r="D41" t="n">
-        <v>4</v>
-      </c>
-      <c r="E41" t="n">
-        <v>2</v>
-      </c>
-      <c r="F41" t="n">
-        <v>5</v>
-      </c>
-      <c r="G41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1269,21 +957,9 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C42" t="n">
-        <v>5</v>
-      </c>
-      <c r="D42" t="n">
-        <v>2</v>
-      </c>
-      <c r="E42" t="n">
-        <v>4</v>
-      </c>
-      <c r="F42" t="n">
-        <v>5</v>
-      </c>
-      <c r="G42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1294,21 +970,9 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C43" t="n">
-        <v>5</v>
-      </c>
-      <c r="D43" t="n">
-        <v>1</v>
-      </c>
-      <c r="E43" t="n">
-        <v>4</v>
-      </c>
-      <c r="F43" t="n">
-        <v>5</v>
-      </c>
-      <c r="G43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1318,10 +982,10 @@
           <t>3_competency/discomfor_1</t>
         </is>
       </c>
-      <c r="F44" t="n">
-        <v>9</v>
-      </c>
-      <c r="G44" t="n">
+      <c r="B44" t="n">
+        <v>1</v>
+      </c>
+      <c r="C44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1331,10 +995,10 @@
           <t>3_competency/discomfor_2</t>
         </is>
       </c>
-      <c r="F45" t="n">
-        <v>9</v>
-      </c>
-      <c r="G45" t="n">
+      <c r="B45" t="n">
+        <v>1</v>
+      </c>
+      <c r="C45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1344,10 +1008,10 @@
           <t>3_competency/discomfor_3</t>
         </is>
       </c>
-      <c r="F46" t="n">
-        <v>9</v>
-      </c>
-      <c r="G46" t="n">
+      <c r="B46" t="n">
+        <v>1</v>
+      </c>
+      <c r="C46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1357,10 +1021,10 @@
           <t>3_competency/discomfor_4</t>
         </is>
       </c>
-      <c r="F47" t="n">
-        <v>9</v>
-      </c>
-      <c r="G47" t="n">
+      <c r="B47" t="n">
+        <v>1</v>
+      </c>
+      <c r="C47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1370,10 +1034,10 @@
           <t>3_competency/discomfor_5</t>
         </is>
       </c>
-      <c r="F48" t="n">
-        <v>9</v>
-      </c>
-      <c r="G48" t="n">
+      <c r="B48" t="n">
+        <v>1</v>
+      </c>
+      <c r="C48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1383,10 +1047,10 @@
           <t>3_competency/discomfor_6</t>
         </is>
       </c>
-      <c r="F49" t="n">
-        <v>9</v>
-      </c>
-      <c r="G49" t="n">
+      <c r="B49" t="n">
+        <v>1</v>
+      </c>
+      <c r="C49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1396,10 +1060,10 @@
           <t>3_competency/discomfor_7</t>
         </is>
       </c>
-      <c r="F50" t="n">
-        <v>9</v>
-      </c>
-      <c r="G50" t="n">
+      <c r="B50" t="n">
+        <v>1</v>
+      </c>
+      <c r="C50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1410,21 +1074,9 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C51" t="n">
-        <v>4</v>
-      </c>
-      <c r="D51" t="n">
-        <v>2</v>
-      </c>
-      <c r="E51" t="n">
-        <v>3</v>
-      </c>
-      <c r="F51" t="n">
-        <v>9</v>
-      </c>
-      <c r="G51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1435,21 +1087,9 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C52" t="n">
-        <v>6</v>
-      </c>
-      <c r="D52" t="n">
-        <v>2</v>
-      </c>
-      <c r="E52" t="n">
-        <v>1</v>
-      </c>
-      <c r="F52" t="n">
-        <v>9</v>
-      </c>
-      <c r="G52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1460,21 +1100,9 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C53" t="n">
-        <v>4</v>
-      </c>
-      <c r="D53" t="n">
-        <v>1</v>
-      </c>
-      <c r="E53" t="n">
-        <v>3</v>
-      </c>
-      <c r="F53" t="n">
-        <v>9</v>
-      </c>
-      <c r="G53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1485,21 +1113,9 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C54" t="n">
-        <v>8</v>
-      </c>
-      <c r="D54" t="n">
-        <v>1</v>
-      </c>
-      <c r="E54" t="n">
-        <v>3</v>
-      </c>
-      <c r="F54" t="n">
-        <v>9</v>
-      </c>
-      <c r="G54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1510,21 +1126,9 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C55" t="n">
-        <v>6</v>
-      </c>
-      <c r="D55" t="n">
-        <v>4</v>
-      </c>
-      <c r="E55" t="n">
-        <v>3</v>
-      </c>
-      <c r="F55" t="n">
-        <v>9</v>
-      </c>
-      <c r="G55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1535,21 +1139,9 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C56" t="n">
-        <v>2</v>
-      </c>
-      <c r="D56" t="n">
-        <v>6</v>
-      </c>
-      <c r="E56" t="n">
-        <v>9</v>
-      </c>
-      <c r="F56" t="n">
-        <v>9</v>
-      </c>
-      <c r="G56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1563,18 +1155,6 @@
         <v>1</v>
       </c>
       <c r="C57" t="n">
-        <v>6</v>
-      </c>
-      <c r="D57" t="n">
-        <v>6</v>
-      </c>
-      <c r="E57" t="n">
-        <v>9</v>
-      </c>
-      <c r="F57" t="n">
-        <v>9</v>
-      </c>
-      <c r="G57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1585,21 +1165,9 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C58" t="n">
-        <v>3</v>
-      </c>
-      <c r="D58" t="n">
-        <v>7</v>
-      </c>
-      <c r="E58" t="n">
-        <v>8</v>
-      </c>
-      <c r="F58" t="n">
-        <v>9</v>
-      </c>
-      <c r="G58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1613,18 +1181,6 @@
         <v>1</v>
       </c>
       <c r="C59" t="n">
-        <v>8</v>
-      </c>
-      <c r="D59" t="n">
-        <v>6</v>
-      </c>
-      <c r="E59" t="n">
-        <v>5</v>
-      </c>
-      <c r="F59" t="n">
-        <v>9</v>
-      </c>
-      <c r="G59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1635,21 +1191,9 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C60" t="n">
-        <v>2</v>
-      </c>
-      <c r="D60" t="n">
-        <v>7</v>
-      </c>
-      <c r="E60" t="n">
-        <v>7</v>
-      </c>
-      <c r="F60" t="n">
-        <v>9</v>
-      </c>
-      <c r="G60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1665,18 +1209,6 @@
       <c r="C61" t="n">
         <v>1</v>
       </c>
-      <c r="D61" t="n">
-        <v>3</v>
-      </c>
-      <c r="E61" t="n">
-        <v>2</v>
-      </c>
-      <c r="F61" t="n">
-        <v>9</v>
-      </c>
-      <c r="G61" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -1685,21 +1217,9 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C62" t="n">
-        <v>4</v>
-      </c>
-      <c r="D62" t="n">
-        <v>1</v>
-      </c>
-      <c r="E62" t="n">
-        <v>1</v>
-      </c>
-      <c r="F62" t="n">
-        <v>5</v>
-      </c>
-      <c r="G62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1710,21 +1230,9 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C63" t="n">
-        <v>2</v>
-      </c>
-      <c r="D63" t="n">
-        <v>5</v>
-      </c>
-      <c r="E63" t="n">
-        <v>5</v>
-      </c>
-      <c r="F63" t="n">
-        <v>5</v>
-      </c>
-      <c r="G63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1735,21 +1243,9 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C64" t="n">
-        <v>1</v>
-      </c>
-      <c r="D64" t="n">
-        <v>4</v>
-      </c>
-      <c r="E64" t="n">
-        <v>1</v>
-      </c>
-      <c r="F64" t="n">
-        <v>5</v>
-      </c>
-      <c r="G64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1759,10 +1255,10 @@
           <t>4_competency/discomfor_1</t>
         </is>
       </c>
-      <c r="F65" t="n">
-        <v>9</v>
-      </c>
-      <c r="G65" t="n">
+      <c r="B65" t="n">
+        <v>1</v>
+      </c>
+      <c r="C65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1772,10 +1268,10 @@
           <t>4_competency/discomfor_2</t>
         </is>
       </c>
-      <c r="F66" t="n">
-        <v>9</v>
-      </c>
-      <c r="G66" t="n">
+      <c r="B66" t="n">
+        <v>1</v>
+      </c>
+      <c r="C66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1785,10 +1281,10 @@
           <t>4_competency/discomfor_3</t>
         </is>
       </c>
-      <c r="F67" t="n">
-        <v>9</v>
-      </c>
-      <c r="G67" t="n">
+      <c r="B67" t="n">
+        <v>1</v>
+      </c>
+      <c r="C67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1798,10 +1294,10 @@
           <t>4_competency/discomfor_4</t>
         </is>
       </c>
-      <c r="F68" t="n">
-        <v>9</v>
-      </c>
-      <c r="G68" t="n">
+      <c r="B68" t="n">
+        <v>1</v>
+      </c>
+      <c r="C68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1811,10 +1307,10 @@
           <t>4_competency/discomfor_5</t>
         </is>
       </c>
-      <c r="F69" t="n">
-        <v>9</v>
-      </c>
-      <c r="G69" t="n">
+      <c r="B69" t="n">
+        <v>1</v>
+      </c>
+      <c r="C69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1824,10 +1320,10 @@
           <t>4_competency/discomfor_6</t>
         </is>
       </c>
-      <c r="F70" t="n">
-        <v>9</v>
-      </c>
-      <c r="G70" t="n">
+      <c r="B70" t="n">
+        <v>1</v>
+      </c>
+      <c r="C70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1837,10 +1333,10 @@
           <t>4_competency/discomfor_7</t>
         </is>
       </c>
-      <c r="F71" t="n">
-        <v>9</v>
-      </c>
-      <c r="G71" t="n">
+      <c r="B71" t="n">
+        <v>1</v>
+      </c>
+      <c r="C71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1851,21 +1347,9 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C72" t="n">
-        <v>1</v>
-      </c>
-      <c r="D72" t="n">
-        <v>2</v>
-      </c>
-      <c r="E72" t="n">
-        <v>3</v>
-      </c>
-      <c r="F72" t="n">
-        <v>9</v>
-      </c>
-      <c r="G72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1876,21 +1360,9 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C73" t="n">
-        <v>7</v>
-      </c>
-      <c r="D73" t="n">
-        <v>1</v>
-      </c>
-      <c r="E73" t="n">
-        <v>7</v>
-      </c>
-      <c r="F73" t="n">
-        <v>9</v>
-      </c>
-      <c r="G73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1901,21 +1373,9 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C74" t="n">
-        <v>4</v>
-      </c>
-      <c r="D74" t="n">
-        <v>1</v>
-      </c>
-      <c r="E74" t="n">
-        <v>5</v>
-      </c>
-      <c r="F74" t="n">
-        <v>9</v>
-      </c>
-      <c r="G74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1926,21 +1386,9 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C75" t="n">
-        <v>2</v>
-      </c>
-      <c r="D75" t="n">
-        <v>2</v>
-      </c>
-      <c r="E75" t="n">
-        <v>4</v>
-      </c>
-      <c r="F75" t="n">
-        <v>9</v>
-      </c>
-      <c r="G75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1951,21 +1399,9 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C76" t="n">
-        <v>1</v>
-      </c>
-      <c r="D76" t="n">
-        <v>2</v>
-      </c>
-      <c r="E76" t="n">
-        <v>5</v>
-      </c>
-      <c r="F76" t="n">
-        <v>9</v>
-      </c>
-      <c r="G76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1979,18 +1415,6 @@
         <v>1</v>
       </c>
       <c r="C77" t="n">
-        <v>6</v>
-      </c>
-      <c r="D77" t="n">
-        <v>1</v>
-      </c>
-      <c r="E77" t="n">
-        <v>1</v>
-      </c>
-      <c r="F77" t="n">
-        <v>9</v>
-      </c>
-      <c r="G77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2004,18 +1428,6 @@
         <v>1</v>
       </c>
       <c r="C78" t="n">
-        <v>9</v>
-      </c>
-      <c r="D78" t="n">
-        <v>7</v>
-      </c>
-      <c r="E78" t="n">
-        <v>6</v>
-      </c>
-      <c r="F78" t="n">
-        <v>9</v>
-      </c>
-      <c r="G78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2026,21 +1438,9 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C79" t="n">
-        <v>9</v>
-      </c>
-      <c r="D79" t="n">
-        <v>8</v>
-      </c>
-      <c r="E79" t="n">
-        <v>7</v>
-      </c>
-      <c r="F79" t="n">
-        <v>9</v>
-      </c>
-      <c r="G79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2051,21 +1451,9 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C80" t="n">
-        <v>6</v>
-      </c>
-      <c r="D80" t="n">
-        <v>3</v>
-      </c>
-      <c r="E80" t="n">
-        <v>1</v>
-      </c>
-      <c r="F80" t="n">
-        <v>9</v>
-      </c>
-      <c r="G80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2076,21 +1464,9 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C81" t="n">
-        <v>9</v>
-      </c>
-      <c r="D81" t="n">
-        <v>7</v>
-      </c>
-      <c r="E81" t="n">
-        <v>5</v>
-      </c>
-      <c r="F81" t="n">
-        <v>9</v>
-      </c>
-      <c r="G81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2106,18 +1482,6 @@
       <c r="C82" t="n">
         <v>1</v>
       </c>
-      <c r="D82" t="n">
-        <v>2</v>
-      </c>
-      <c r="E82" t="n">
-        <v>1</v>
-      </c>
-      <c r="F82" t="n">
-        <v>9</v>
-      </c>
-      <c r="G82" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -2126,21 +1490,9 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C83" t="n">
-        <v>1</v>
-      </c>
-      <c r="D83" t="n">
-        <v>2</v>
-      </c>
-      <c r="E83" t="n">
-        <v>4</v>
-      </c>
-      <c r="F83" t="n">
-        <v>5</v>
-      </c>
-      <c r="G83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2151,21 +1503,9 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C84" t="n">
-        <v>5</v>
-      </c>
-      <c r="D84" t="n">
-        <v>3</v>
-      </c>
-      <c r="E84" t="n">
-        <v>2</v>
-      </c>
-      <c r="F84" t="n">
-        <v>5</v>
-      </c>
-      <c r="G84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2176,21 +1516,9 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C85" t="n">
-        <v>5</v>
-      </c>
-      <c r="D85" t="n">
-        <v>3</v>
-      </c>
-      <c r="E85" t="n">
-        <v>1</v>
-      </c>
-      <c r="F85" t="n">
-        <v>5</v>
-      </c>
-      <c r="G85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2200,10 +1528,10 @@
           <t>5_competency/discomfor_1</t>
         </is>
       </c>
-      <c r="F86" t="n">
-        <v>9</v>
-      </c>
-      <c r="G86" t="n">
+      <c r="B86" t="n">
+        <v>1</v>
+      </c>
+      <c r="C86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2213,10 +1541,10 @@
           <t>5_competency/discomfor_2</t>
         </is>
       </c>
-      <c r="F87" t="n">
-        <v>9</v>
-      </c>
-      <c r="G87" t="n">
+      <c r="B87" t="n">
+        <v>1</v>
+      </c>
+      <c r="C87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2226,10 +1554,10 @@
           <t>5_competency/discomfor_3</t>
         </is>
       </c>
-      <c r="F88" t="n">
-        <v>9</v>
-      </c>
-      <c r="G88" t="n">
+      <c r="B88" t="n">
+        <v>1</v>
+      </c>
+      <c r="C88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2239,10 +1567,10 @@
           <t>5_competency/discomfor_4</t>
         </is>
       </c>
-      <c r="F89" t="n">
-        <v>9</v>
-      </c>
-      <c r="G89" t="n">
+      <c r="B89" t="n">
+        <v>1</v>
+      </c>
+      <c r="C89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2252,10 +1580,10 @@
           <t>5_competency/discomfor_5</t>
         </is>
       </c>
-      <c r="F90" t="n">
-        <v>9</v>
-      </c>
-      <c r="G90" t="n">
+      <c r="B90" t="n">
+        <v>1</v>
+      </c>
+      <c r="C90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2265,10 +1593,10 @@
           <t>5_competency/discomfor_6</t>
         </is>
       </c>
-      <c r="F91" t="n">
-        <v>9</v>
-      </c>
-      <c r="G91" t="n">
+      <c r="B91" t="n">
+        <v>1</v>
+      </c>
+      <c r="C91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2278,10 +1606,10 @@
           <t>5_competency/discomfor_7</t>
         </is>
       </c>
-      <c r="F92" t="n">
-        <v>9</v>
-      </c>
-      <c r="G92" t="n">
+      <c r="B92" t="n">
+        <v>1</v>
+      </c>
+      <c r="C92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2292,21 +1620,9 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C93" t="n">
-        <v>1</v>
-      </c>
-      <c r="D93" t="n">
-        <v>3</v>
-      </c>
-      <c r="E93" t="n">
-        <v>3</v>
-      </c>
-      <c r="F93" t="n">
-        <v>9</v>
-      </c>
-      <c r="G93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2317,21 +1633,9 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C94" t="n">
-        <v>2</v>
-      </c>
-      <c r="D94" t="n">
-        <v>3</v>
-      </c>
-      <c r="E94" t="n">
-        <v>6</v>
-      </c>
-      <c r="F94" t="n">
-        <v>9</v>
-      </c>
-      <c r="G94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2342,21 +1646,9 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C95" t="n">
-        <v>9</v>
-      </c>
-      <c r="D95" t="n">
-        <v>1</v>
-      </c>
-      <c r="E95" t="n">
-        <v>6</v>
-      </c>
-      <c r="F95" t="n">
-        <v>9</v>
-      </c>
-      <c r="G95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2367,21 +1659,9 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C96" t="n">
-        <v>6</v>
-      </c>
-      <c r="D96" t="n">
-        <v>2</v>
-      </c>
-      <c r="E96" t="n">
-        <v>4</v>
-      </c>
-      <c r="F96" t="n">
-        <v>9</v>
-      </c>
-      <c r="G96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2392,21 +1672,9 @@
         </is>
       </c>
       <c r="B97" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C97" t="n">
-        <v>4</v>
-      </c>
-      <c r="D97" t="n">
-        <v>2</v>
-      </c>
-      <c r="E97" t="n">
-        <v>5</v>
-      </c>
-      <c r="F97" t="n">
-        <v>9</v>
-      </c>
-      <c r="G97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2417,21 +1685,9 @@
         </is>
       </c>
       <c r="B98" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C98" t="n">
-        <v>3</v>
-      </c>
-      <c r="D98" t="n">
-        <v>1</v>
-      </c>
-      <c r="E98" t="n">
-        <v>1</v>
-      </c>
-      <c r="F98" t="n">
-        <v>9</v>
-      </c>
-      <c r="G98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2445,18 +1701,6 @@
         <v>1</v>
       </c>
       <c r="C99" t="n">
-        <v>9</v>
-      </c>
-      <c r="D99" t="n">
-        <v>2</v>
-      </c>
-      <c r="E99" t="n">
-        <v>2</v>
-      </c>
-      <c r="F99" t="n">
-        <v>9</v>
-      </c>
-      <c r="G99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2467,21 +1711,9 @@
         </is>
       </c>
       <c r="B100" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C100" t="n">
-        <v>9</v>
-      </c>
-      <c r="D100" t="n">
-        <v>8</v>
-      </c>
-      <c r="E100" t="n">
-        <v>7</v>
-      </c>
-      <c r="F100" t="n">
-        <v>9</v>
-      </c>
-      <c r="G100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2492,21 +1724,9 @@
         </is>
       </c>
       <c r="B101" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C101" t="n">
-        <v>7</v>
-      </c>
-      <c r="D101" t="n">
-        <v>1</v>
-      </c>
-      <c r="E101" t="n">
-        <v>2</v>
-      </c>
-      <c r="F101" t="n">
-        <v>9</v>
-      </c>
-      <c r="G101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2517,21 +1737,9 @@
         </is>
       </c>
       <c r="B102" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C102" t="n">
-        <v>6</v>
-      </c>
-      <c r="D102" t="n">
-        <v>7</v>
-      </c>
-      <c r="E102" t="n">
-        <v>2</v>
-      </c>
-      <c r="F102" t="n">
-        <v>9</v>
-      </c>
-      <c r="G102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2542,21 +1750,9 @@
         </is>
       </c>
       <c r="B103" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C103" t="n">
-        <v>9</v>
-      </c>
-      <c r="D103" t="n">
-        <v>2</v>
-      </c>
-      <c r="E103" t="n">
-        <v>1</v>
-      </c>
-      <c r="F103" t="n">
-        <v>9</v>
-      </c>
-      <c r="G103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2567,21 +1763,9 @@
         </is>
       </c>
       <c r="B104" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C104" t="n">
-        <v>1</v>
-      </c>
-      <c r="D104" t="n">
-        <v>2</v>
-      </c>
-      <c r="E104" t="n">
-        <v>4</v>
-      </c>
-      <c r="F104" t="n">
-        <v>5</v>
-      </c>
-      <c r="G104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2595,18 +1779,6 @@
         <v>1</v>
       </c>
       <c r="C105" t="n">
-        <v>5</v>
-      </c>
-      <c r="D105" t="n">
-        <v>4</v>
-      </c>
-      <c r="E105" t="n">
-        <v>2</v>
-      </c>
-      <c r="F105" t="n">
-        <v>5</v>
-      </c>
-      <c r="G105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2620,18 +1792,6 @@
         <v>1</v>
       </c>
       <c r="C106" t="n">
-        <v>5</v>
-      </c>
-      <c r="D106" t="n">
-        <v>2</v>
-      </c>
-      <c r="E106" t="n">
-        <v>2</v>
-      </c>
-      <c r="F106" t="n">
-        <v>5</v>
-      </c>
-      <c r="G106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2641,10 +1801,10 @@
           <t>6_competency/discomfor_1</t>
         </is>
       </c>
-      <c r="F107" t="n">
-        <v>9</v>
-      </c>
-      <c r="G107" t="n">
+      <c r="B107" t="n">
+        <v>1</v>
+      </c>
+      <c r="C107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2654,10 +1814,10 @@
           <t>6_competency/discomfor_2</t>
         </is>
       </c>
-      <c r="F108" t="n">
-        <v>9</v>
-      </c>
-      <c r="G108" t="n">
+      <c r="B108" t="n">
+        <v>1</v>
+      </c>
+      <c r="C108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2667,10 +1827,10 @@
           <t>6_competency/discomfor_3</t>
         </is>
       </c>
-      <c r="F109" t="n">
-        <v>9</v>
-      </c>
-      <c r="G109" t="n">
+      <c r="B109" t="n">
+        <v>1</v>
+      </c>
+      <c r="C109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2680,10 +1840,10 @@
           <t>6_competency/discomfor_4</t>
         </is>
       </c>
-      <c r="F110" t="n">
-        <v>9</v>
-      </c>
-      <c r="G110" t="n">
+      <c r="B110" t="n">
+        <v>1</v>
+      </c>
+      <c r="C110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2693,10 +1853,10 @@
           <t>6_competency/discomfor_5</t>
         </is>
       </c>
-      <c r="F111" t="n">
-        <v>9</v>
-      </c>
-      <c r="G111" t="n">
+      <c r="B111" t="n">
+        <v>1</v>
+      </c>
+      <c r="C111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2706,10 +1866,10 @@
           <t>6_competency/discomfor_6</t>
         </is>
       </c>
-      <c r="F112" t="n">
-        <v>9</v>
-      </c>
-      <c r="G112" t="n">
+      <c r="B112" t="n">
+        <v>1</v>
+      </c>
+      <c r="C112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2719,10 +1879,10 @@
           <t>6_competency/discomfor_7</t>
         </is>
       </c>
-      <c r="F113" t="n">
-        <v>9</v>
-      </c>
-      <c r="G113" t="n">
+      <c r="B113" t="n">
+        <v>1</v>
+      </c>
+      <c r="C113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2733,21 +1893,9 @@
         </is>
       </c>
       <c r="B114" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C114" t="n">
-        <v>1</v>
-      </c>
-      <c r="D114" t="n">
-        <v>6</v>
-      </c>
-      <c r="E114" t="n">
-        <v>3</v>
-      </c>
-      <c r="F114" t="n">
-        <v>9</v>
-      </c>
-      <c r="G114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2758,21 +1906,9 @@
         </is>
       </c>
       <c r="B115" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C115" t="n">
-        <v>1</v>
-      </c>
-      <c r="D115" t="n">
-        <v>6</v>
-      </c>
-      <c r="E115" t="n">
-        <v>7</v>
-      </c>
-      <c r="F115" t="n">
-        <v>9</v>
-      </c>
-      <c r="G115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2783,21 +1919,9 @@
         </is>
       </c>
       <c r="B116" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C116" t="n">
-        <v>6</v>
-      </c>
-      <c r="D116" t="n">
-        <v>4</v>
-      </c>
-      <c r="E116" t="n">
-        <v>3</v>
-      </c>
-      <c r="F116" t="n">
-        <v>9</v>
-      </c>
-      <c r="G116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2808,21 +1932,9 @@
         </is>
       </c>
       <c r="B117" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C117" t="n">
-        <v>2</v>
-      </c>
-      <c r="D117" t="n">
-        <v>6</v>
-      </c>
-      <c r="E117" t="n">
-        <v>5</v>
-      </c>
-      <c r="F117" t="n">
-        <v>9</v>
-      </c>
-      <c r="G117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2833,21 +1945,9 @@
         </is>
       </c>
       <c r="B118" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C118" t="n">
-        <v>2</v>
-      </c>
-      <c r="D118" t="n">
-        <v>4</v>
-      </c>
-      <c r="E118" t="n">
-        <v>5</v>
-      </c>
-      <c r="F118" t="n">
-        <v>9</v>
-      </c>
-      <c r="G118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2858,21 +1958,9 @@
         </is>
       </c>
       <c r="B119" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C119" t="n">
-        <v>3</v>
-      </c>
-      <c r="D119" t="n">
-        <v>2</v>
-      </c>
-      <c r="E119" t="n">
-        <v>2</v>
-      </c>
-      <c r="F119" t="n">
-        <v>9</v>
-      </c>
-      <c r="G119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2883,21 +1971,9 @@
         </is>
       </c>
       <c r="B120" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C120" t="n">
-        <v>9</v>
-      </c>
-      <c r="D120" t="n">
-        <v>6</v>
-      </c>
-      <c r="E120" t="n">
-        <v>6</v>
-      </c>
-      <c r="F120" t="n">
-        <v>9</v>
-      </c>
-      <c r="G120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2908,21 +1984,9 @@
         </is>
       </c>
       <c r="B121" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C121" t="n">
-        <v>9</v>
-      </c>
-      <c r="D121" t="n">
-        <v>4</v>
-      </c>
-      <c r="E121" t="n">
-        <v>6</v>
-      </c>
-      <c r="F121" t="n">
-        <v>9</v>
-      </c>
-      <c r="G121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2933,21 +1997,9 @@
         </is>
       </c>
       <c r="B122" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C122" t="n">
-        <v>7</v>
-      </c>
-      <c r="D122" t="n">
-        <v>3</v>
-      </c>
-      <c r="E122" t="n">
-        <v>2</v>
-      </c>
-      <c r="F122" t="n">
-        <v>9</v>
-      </c>
-      <c r="G122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2958,21 +2010,9 @@
         </is>
       </c>
       <c r="B123" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C123" t="n">
-        <v>6</v>
-      </c>
-      <c r="D123" t="n">
-        <v>3</v>
-      </c>
-      <c r="E123" t="n">
-        <v>3</v>
-      </c>
-      <c r="F123" t="n">
-        <v>9</v>
-      </c>
-      <c r="G123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2983,21 +2023,9 @@
         </is>
       </c>
       <c r="B124" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C124" t="n">
-        <v>3</v>
-      </c>
-      <c r="D124" t="n">
-        <v>3</v>
-      </c>
-      <c r="E124" t="n">
-        <v>1</v>
-      </c>
-      <c r="F124" t="n">
-        <v>9</v>
-      </c>
-      <c r="G124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3008,21 +2036,9 @@
         </is>
       </c>
       <c r="B125" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C125" t="n">
-        <v>1</v>
-      </c>
-      <c r="D125" t="n">
-        <v>5</v>
-      </c>
-      <c r="E125" t="n">
-        <v>4</v>
-      </c>
-      <c r="F125" t="n">
-        <v>5</v>
-      </c>
-      <c r="G125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3033,21 +2049,9 @@
         </is>
       </c>
       <c r="B126" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C126" t="n">
-        <v>5</v>
-      </c>
-      <c r="D126" t="n">
-        <v>1</v>
-      </c>
-      <c r="E126" t="n">
-        <v>2</v>
-      </c>
-      <c r="F126" t="n">
-        <v>5</v>
-      </c>
-      <c r="G126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3058,21 +2062,9 @@
         </is>
       </c>
       <c r="B127" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C127" t="n">
-        <v>5</v>
-      </c>
-      <c r="D127" t="n">
-        <v>2</v>
-      </c>
-      <c r="E127" t="n">
-        <v>2</v>
-      </c>
-      <c r="F127" t="n">
-        <v>5</v>
-      </c>
-      <c r="G127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3082,10 +2074,10 @@
           <t>7_competency/discomfor_1</t>
         </is>
       </c>
-      <c r="F128" t="n">
-        <v>9</v>
-      </c>
-      <c r="G128" t="n">
+      <c r="B128" t="n">
+        <v>1</v>
+      </c>
+      <c r="C128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3095,10 +2087,10 @@
           <t>7_competency/discomfor_2</t>
         </is>
       </c>
-      <c r="F129" t="n">
-        <v>9</v>
-      </c>
-      <c r="G129" t="n">
+      <c r="B129" t="n">
+        <v>1</v>
+      </c>
+      <c r="C129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3108,10 +2100,10 @@
           <t>7_competency/discomfor_3</t>
         </is>
       </c>
-      <c r="F130" t="n">
-        <v>9</v>
-      </c>
-      <c r="G130" t="n">
+      <c r="B130" t="n">
+        <v>1</v>
+      </c>
+      <c r="C130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3121,10 +2113,10 @@
           <t>7_competency/discomfor_4</t>
         </is>
       </c>
-      <c r="F131" t="n">
-        <v>9</v>
-      </c>
-      <c r="G131" t="n">
+      <c r="B131" t="n">
+        <v>1</v>
+      </c>
+      <c r="C131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3134,10 +2126,10 @@
           <t>7_competency/discomfor_5</t>
         </is>
       </c>
-      <c r="F132" t="n">
-        <v>9</v>
-      </c>
-      <c r="G132" t="n">
+      <c r="B132" t="n">
+        <v>1</v>
+      </c>
+      <c r="C132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3147,10 +2139,10 @@
           <t>7_competency/discomfor_6</t>
         </is>
       </c>
-      <c r="F133" t="n">
-        <v>9</v>
-      </c>
-      <c r="G133" t="n">
+      <c r="B133" t="n">
+        <v>1</v>
+      </c>
+      <c r="C133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3160,10 +2152,10 @@
           <t>7_competency/discomfor_7</t>
         </is>
       </c>
-      <c r="F134" t="n">
-        <v>9</v>
-      </c>
-      <c r="G134" t="n">
+      <c r="B134" t="n">
+        <v>1</v>
+      </c>
+      <c r="C134" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3174,21 +2166,9 @@
         </is>
       </c>
       <c r="B135" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C135" t="n">
-        <v>6</v>
-      </c>
-      <c r="D135" t="n">
-        <v>6</v>
-      </c>
-      <c r="E135" t="n">
-        <v>7</v>
-      </c>
-      <c r="F135" t="n">
-        <v>9</v>
-      </c>
-      <c r="G135" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3199,21 +2179,9 @@
         </is>
       </c>
       <c r="B136" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C136" t="n">
-        <v>6</v>
-      </c>
-      <c r="D136" t="n">
-        <v>6</v>
-      </c>
-      <c r="E136" t="n">
-        <v>3</v>
-      </c>
-      <c r="F136" t="n">
-        <v>9</v>
-      </c>
-      <c r="G136" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3224,21 +2192,9 @@
         </is>
       </c>
       <c r="B137" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C137" t="n">
-        <v>6</v>
-      </c>
-      <c r="D137" t="n">
-        <v>8</v>
-      </c>
-      <c r="E137" t="n">
-        <v>7</v>
-      </c>
-      <c r="F137" t="n">
-        <v>9</v>
-      </c>
-      <c r="G137" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3249,21 +2205,9 @@
         </is>
       </c>
       <c r="B138" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C138" t="n">
-        <v>6</v>
-      </c>
-      <c r="D138" t="n">
-        <v>8</v>
-      </c>
-      <c r="E138" t="n">
-        <v>7</v>
-      </c>
-      <c r="F138" t="n">
-        <v>9</v>
-      </c>
-      <c r="G138" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3274,21 +2218,9 @@
         </is>
       </c>
       <c r="B139" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C139" t="n">
-        <v>6</v>
-      </c>
-      <c r="D139" t="n">
-        <v>5</v>
-      </c>
-      <c r="E139" t="n">
-        <v>8</v>
-      </c>
-      <c r="F139" t="n">
-        <v>9</v>
-      </c>
-      <c r="G139" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3299,21 +2231,9 @@
         </is>
       </c>
       <c r="B140" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C140" t="n">
-        <v>2</v>
-      </c>
-      <c r="D140" t="n">
-        <v>3</v>
-      </c>
-      <c r="E140" t="n">
-        <v>1</v>
-      </c>
-      <c r="F140" t="n">
-        <v>9</v>
-      </c>
-      <c r="G140" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3324,21 +2244,9 @@
         </is>
       </c>
       <c r="B141" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C141" t="n">
-        <v>1</v>
-      </c>
-      <c r="D141" t="n">
-        <v>3</v>
-      </c>
-      <c r="E141" t="n">
-        <v>1</v>
-      </c>
-      <c r="F141" t="n">
-        <v>9</v>
-      </c>
-      <c r="G141" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3349,21 +2257,9 @@
         </is>
       </c>
       <c r="B142" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C142" t="n">
-        <v>6</v>
-      </c>
-      <c r="D142" t="n">
-        <v>2</v>
-      </c>
-      <c r="E142" t="n">
-        <v>1</v>
-      </c>
-      <c r="F142" t="n">
-        <v>9</v>
-      </c>
-      <c r="G142" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3374,21 +2270,9 @@
         </is>
       </c>
       <c r="B143" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C143" t="n">
-        <v>3</v>
-      </c>
-      <c r="D143" t="n">
-        <v>2</v>
-      </c>
-      <c r="E143" t="n">
-        <v>3</v>
-      </c>
-      <c r="F143" t="n">
-        <v>9</v>
-      </c>
-      <c r="G143" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3399,21 +2283,9 @@
         </is>
       </c>
       <c r="B144" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C144" t="n">
-        <v>1</v>
-      </c>
-      <c r="D144" t="n">
-        <v>2</v>
-      </c>
-      <c r="E144" t="n">
-        <v>1</v>
-      </c>
-      <c r="F144" t="n">
-        <v>9</v>
-      </c>
-      <c r="G144" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3429,18 +2301,6 @@
       <c r="C145" t="n">
         <v>1</v>
       </c>
-      <c r="D145" t="n">
-        <v>2</v>
-      </c>
-      <c r="E145" t="n">
-        <v>1</v>
-      </c>
-      <c r="F145" t="n">
-        <v>9</v>
-      </c>
-      <c r="G145" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -3449,21 +2309,9 @@
         </is>
       </c>
       <c r="B146" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C146" t="n">
-        <v>5</v>
-      </c>
-      <c r="D146" t="n">
-        <v>5</v>
-      </c>
-      <c r="E146" t="n">
-        <v>3</v>
-      </c>
-      <c r="F146" t="n">
-        <v>5</v>
-      </c>
-      <c r="G146" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3479,18 +2327,6 @@
       <c r="C147" t="n">
         <v>1</v>
       </c>
-      <c r="D147" t="n">
-        <v>1</v>
-      </c>
-      <c r="E147" t="n">
-        <v>2</v>
-      </c>
-      <c r="F147" t="n">
-        <v>5</v>
-      </c>
-      <c r="G147" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -3499,21 +2335,9 @@
         </is>
       </c>
       <c r="B148" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C148" t="n">
-        <v>1</v>
-      </c>
-      <c r="D148" t="n">
-        <v>1</v>
-      </c>
-      <c r="E148" t="n">
-        <v>2</v>
-      </c>
-      <c r="F148" t="n">
-        <v>5</v>
-      </c>
-      <c r="G148" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3523,10 +2347,10 @@
           <t>8_competency/discomfor_1</t>
         </is>
       </c>
-      <c r="F149" t="n">
-        <v>9</v>
-      </c>
-      <c r="G149" t="n">
+      <c r="B149" t="n">
+        <v>1</v>
+      </c>
+      <c r="C149" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3536,10 +2360,10 @@
           <t>8_competency/discomfor_2</t>
         </is>
       </c>
-      <c r="F150" t="n">
-        <v>9</v>
-      </c>
-      <c r="G150" t="n">
+      <c r="B150" t="n">
+        <v>1</v>
+      </c>
+      <c r="C150" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3549,10 +2373,10 @@
           <t>8_competency/discomfor_3</t>
         </is>
       </c>
-      <c r="F151" t="n">
-        <v>9</v>
-      </c>
-      <c r="G151" t="n">
+      <c r="B151" t="n">
+        <v>1</v>
+      </c>
+      <c r="C151" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3562,10 +2386,10 @@
           <t>8_competency/discomfor_4</t>
         </is>
       </c>
-      <c r="F152" t="n">
-        <v>9</v>
-      </c>
-      <c r="G152" t="n">
+      <c r="B152" t="n">
+        <v>1</v>
+      </c>
+      <c r="C152" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3575,10 +2399,10 @@
           <t>8_competency/discomfor_5</t>
         </is>
       </c>
-      <c r="F153" t="n">
-        <v>9</v>
-      </c>
-      <c r="G153" t="n">
+      <c r="B153" t="n">
+        <v>1</v>
+      </c>
+      <c r="C153" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3588,10 +2412,10 @@
           <t>8_competency/discomfor_6</t>
         </is>
       </c>
-      <c r="F154" t="n">
-        <v>9</v>
-      </c>
-      <c r="G154" t="n">
+      <c r="B154" t="n">
+        <v>1</v>
+      </c>
+      <c r="C154" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3601,10 +2425,10 @@
           <t>8_competency/discomfor_7</t>
         </is>
       </c>
-      <c r="F155" t="n">
-        <v>9</v>
-      </c>
-      <c r="G155" t="n">
+      <c r="B155" t="n">
+        <v>1</v>
+      </c>
+      <c r="C155" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3615,21 +2439,9 @@
         </is>
       </c>
       <c r="B156" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C156" t="n">
-        <v>3</v>
-      </c>
-      <c r="D156" t="n">
-        <v>4</v>
-      </c>
-      <c r="E156" t="n">
-        <v>9</v>
-      </c>
-      <c r="F156" t="n">
-        <v>9</v>
-      </c>
-      <c r="G156" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3640,21 +2452,9 @@
         </is>
       </c>
       <c r="B157" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C157" t="n">
-        <v>3</v>
-      </c>
-      <c r="D157" t="n">
-        <v>4</v>
-      </c>
-      <c r="E157" t="n">
-        <v>1</v>
-      </c>
-      <c r="F157" t="n">
-        <v>9</v>
-      </c>
-      <c r="G157" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3665,21 +2465,9 @@
         </is>
       </c>
       <c r="B158" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C158" t="n">
-        <v>9</v>
-      </c>
-      <c r="D158" t="n">
-        <v>6</v>
-      </c>
-      <c r="E158" t="n">
-        <v>9</v>
-      </c>
-      <c r="F158" t="n">
-        <v>9</v>
-      </c>
-      <c r="G158" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3690,21 +2478,9 @@
         </is>
       </c>
       <c r="B159" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C159" t="n">
-        <v>9</v>
-      </c>
-      <c r="D159" t="n">
-        <v>6</v>
-      </c>
-      <c r="E159" t="n">
-        <v>9</v>
-      </c>
-      <c r="F159" t="n">
-        <v>9</v>
-      </c>
-      <c r="G159" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3715,21 +2491,9 @@
         </is>
       </c>
       <c r="B160" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C160" t="n">
-        <v>9</v>
-      </c>
-      <c r="D160" t="n">
-        <v>3</v>
-      </c>
-      <c r="E160" t="n">
-        <v>7</v>
-      </c>
-      <c r="F160" t="n">
-        <v>9</v>
-      </c>
-      <c r="G160" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3740,21 +2504,9 @@
         </is>
       </c>
       <c r="B161" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C161" t="n">
-        <v>1</v>
-      </c>
-      <c r="D161" t="n">
-        <v>3</v>
-      </c>
-      <c r="E161" t="n">
-        <v>6</v>
-      </c>
-      <c r="F161" t="n">
-        <v>9</v>
-      </c>
-      <c r="G161" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3765,21 +2517,9 @@
         </is>
       </c>
       <c r="B162" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C162" t="n">
-        <v>1</v>
-      </c>
-      <c r="D162" t="n">
-        <v>2</v>
-      </c>
-      <c r="E162" t="n">
-        <v>4</v>
-      </c>
-      <c r="F162" t="n">
-        <v>9</v>
-      </c>
-      <c r="G162" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3790,21 +2530,9 @@
         </is>
       </c>
       <c r="B163" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C163" t="n">
-        <v>7</v>
-      </c>
-      <c r="D163" t="n">
-        <v>6</v>
-      </c>
-      <c r="E163" t="n">
-        <v>6</v>
-      </c>
-      <c r="F163" t="n">
-        <v>9</v>
-      </c>
-      <c r="G163" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3815,21 +2543,9 @@
         </is>
       </c>
       <c r="B164" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C164" t="n">
-        <v>6</v>
-      </c>
-      <c r="D164" t="n">
-        <v>3</v>
-      </c>
-      <c r="E164" t="n">
-        <v>7</v>
-      </c>
-      <c r="F164" t="n">
-        <v>9</v>
-      </c>
-      <c r="G164" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3840,21 +2556,9 @@
         </is>
       </c>
       <c r="B165" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C165" t="n">
-        <v>1</v>
-      </c>
-      <c r="D165" t="n">
-        <v>4</v>
-      </c>
-      <c r="E165" t="n">
-        <v>1</v>
-      </c>
-      <c r="F165" t="n">
-        <v>9</v>
-      </c>
-      <c r="G165" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3865,21 +2569,9 @@
         </is>
       </c>
       <c r="B166" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C166" t="n">
-        <v>8</v>
-      </c>
-      <c r="D166" t="n">
-        <v>3</v>
-      </c>
-      <c r="E166" t="n">
-        <v>4</v>
-      </c>
-      <c r="F166" t="n">
-        <v>9</v>
-      </c>
-      <c r="G166" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3890,21 +2582,9 @@
         </is>
       </c>
       <c r="B167" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C167" t="n">
-        <v>5</v>
-      </c>
-      <c r="D167" t="n">
-        <v>3</v>
-      </c>
-      <c r="E167" t="n">
-        <v>5</v>
-      </c>
-      <c r="F167" t="n">
-        <v>5</v>
-      </c>
-      <c r="G167" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3915,21 +2595,9 @@
         </is>
       </c>
       <c r="B168" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C168" t="n">
-        <v>1</v>
-      </c>
-      <c r="D168" t="n">
-        <v>2</v>
-      </c>
-      <c r="E168" t="n">
-        <v>3</v>
-      </c>
-      <c r="F168" t="n">
-        <v>5</v>
-      </c>
-      <c r="G168" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3940,21 +2608,9 @@
         </is>
       </c>
       <c r="B169" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C169" t="n">
-        <v>1</v>
-      </c>
-      <c r="D169" t="n">
-        <v>1</v>
-      </c>
-      <c r="E169" t="n">
-        <v>1</v>
-      </c>
-      <c r="F169" t="n">
-        <v>5</v>
-      </c>
-      <c r="G169" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3964,10 +2620,10 @@
           <t>9_competency/discomfor_1</t>
         </is>
       </c>
-      <c r="F170" t="n">
-        <v>9</v>
-      </c>
-      <c r="G170" t="n">
+      <c r="B170" t="n">
+        <v>1</v>
+      </c>
+      <c r="C170" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3977,10 +2633,10 @@
           <t>9_competency/discomfor_2</t>
         </is>
       </c>
-      <c r="F171" t="n">
-        <v>9</v>
-      </c>
-      <c r="G171" t="n">
+      <c r="B171" t="n">
+        <v>1</v>
+      </c>
+      <c r="C171" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3990,10 +2646,10 @@
           <t>9_competency/discomfor_3</t>
         </is>
       </c>
-      <c r="F172" t="n">
-        <v>9</v>
-      </c>
-      <c r="G172" t="n">
+      <c r="B172" t="n">
+        <v>1</v>
+      </c>
+      <c r="C172" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4003,10 +2659,10 @@
           <t>9_competency/discomfor_4</t>
         </is>
       </c>
-      <c r="F173" t="n">
-        <v>9</v>
-      </c>
-      <c r="G173" t="n">
+      <c r="B173" t="n">
+        <v>1</v>
+      </c>
+      <c r="C173" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4016,10 +2672,10 @@
           <t>9_competency/discomfor_5</t>
         </is>
       </c>
-      <c r="F174" t="n">
-        <v>9</v>
-      </c>
-      <c r="G174" t="n">
+      <c r="B174" t="n">
+        <v>1</v>
+      </c>
+      <c r="C174" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4029,10 +2685,10 @@
           <t>9_competency/discomfor_6</t>
         </is>
       </c>
-      <c r="F175" t="n">
-        <v>9</v>
-      </c>
-      <c r="G175" t="n">
+      <c r="B175" t="n">
+        <v>1</v>
+      </c>
+      <c r="C175" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4042,10 +2698,10 @@
           <t>9_competency/discomfor_7</t>
         </is>
       </c>
-      <c r="F176" t="n">
-        <v>9</v>
-      </c>
-      <c r="G176" t="n">
+      <c r="B176" t="n">
+        <v>1</v>
+      </c>
+      <c r="C176" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4056,21 +2712,9 @@
         </is>
       </c>
       <c r="B177" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C177" t="n">
-        <v>7</v>
-      </c>
-      <c r="D177" t="n">
-        <v>4</v>
-      </c>
-      <c r="E177" t="n">
-        <v>9</v>
-      </c>
-      <c r="F177" t="n">
-        <v>9</v>
-      </c>
-      <c r="G177" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4081,21 +2725,9 @@
         </is>
       </c>
       <c r="B178" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C178" t="n">
-        <v>6</v>
-      </c>
-      <c r="D178" t="n">
-        <v>4</v>
-      </c>
-      <c r="E178" t="n">
-        <v>4</v>
-      </c>
-      <c r="F178" t="n">
-        <v>9</v>
-      </c>
-      <c r="G178" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4106,21 +2738,9 @@
         </is>
       </c>
       <c r="B179" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C179" t="n">
-        <v>7</v>
-      </c>
-      <c r="D179" t="n">
-        <v>8</v>
-      </c>
-      <c r="E179" t="n">
-        <v>7</v>
-      </c>
-      <c r="F179" t="n">
-        <v>9</v>
-      </c>
-      <c r="G179" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4131,21 +2751,9 @@
         </is>
       </c>
       <c r="B180" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C180" t="n">
-        <v>7</v>
-      </c>
-      <c r="D180" t="n">
-        <v>7</v>
-      </c>
-      <c r="E180" t="n">
-        <v>8</v>
-      </c>
-      <c r="F180" t="n">
-        <v>9</v>
-      </c>
-      <c r="G180" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4156,21 +2764,9 @@
         </is>
       </c>
       <c r="B181" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C181" t="n">
-        <v>6</v>
-      </c>
-      <c r="D181" t="n">
-        <v>4</v>
-      </c>
-      <c r="E181" t="n">
-        <v>9</v>
-      </c>
-      <c r="F181" t="n">
-        <v>9</v>
-      </c>
-      <c r="G181" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4181,21 +2777,9 @@
         </is>
       </c>
       <c r="B182" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C182" t="n">
-        <v>3</v>
-      </c>
-      <c r="D182" t="n">
-        <v>4</v>
-      </c>
-      <c r="E182" t="n">
-        <v>1</v>
-      </c>
-      <c r="F182" t="n">
-        <v>9</v>
-      </c>
-      <c r="G182" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4206,21 +2790,9 @@
         </is>
       </c>
       <c r="B183" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C183" t="n">
-        <v>4</v>
-      </c>
-      <c r="D183" t="n">
-        <v>3</v>
-      </c>
-      <c r="E183" t="n">
-        <v>1</v>
-      </c>
-      <c r="F183" t="n">
-        <v>9</v>
-      </c>
-      <c r="G183" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4231,21 +2803,9 @@
         </is>
       </c>
       <c r="B184" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C184" t="n">
-        <v>4</v>
-      </c>
-      <c r="D184" t="n">
-        <v>1</v>
-      </c>
-      <c r="E184" t="n">
-        <v>1</v>
-      </c>
-      <c r="F184" t="n">
-        <v>9</v>
-      </c>
-      <c r="G184" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4256,21 +2816,9 @@
         </is>
       </c>
       <c r="B185" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C185" t="n">
-        <v>3</v>
-      </c>
-      <c r="D185" t="n">
-        <v>4</v>
-      </c>
-      <c r="E185" t="n">
-        <v>6</v>
-      </c>
-      <c r="F185" t="n">
-        <v>9</v>
-      </c>
-      <c r="G185" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4281,21 +2829,9 @@
         </is>
       </c>
       <c r="B186" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C186" t="n">
-        <v>2</v>
-      </c>
-      <c r="D186" t="n">
-        <v>4</v>
-      </c>
-      <c r="E186" t="n">
-        <v>1</v>
-      </c>
-      <c r="F186" t="n">
-        <v>9</v>
-      </c>
-      <c r="G186" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4311,18 +2847,6 @@
       <c r="C187" t="n">
         <v>1</v>
       </c>
-      <c r="D187" t="n">
-        <v>4</v>
-      </c>
-      <c r="E187" t="n">
-        <v>2</v>
-      </c>
-      <c r="F187" t="n">
-        <v>9</v>
-      </c>
-      <c r="G187" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -4331,21 +2855,9 @@
         </is>
       </c>
       <c r="B188" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C188" t="n">
-        <v>5</v>
-      </c>
-      <c r="D188" t="n">
-        <v>4</v>
-      </c>
-      <c r="E188" t="n">
-        <v>5</v>
-      </c>
-      <c r="F188" t="n">
-        <v>5</v>
-      </c>
-      <c r="G188" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4356,21 +2868,9 @@
         </is>
       </c>
       <c r="B189" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C189" t="n">
-        <v>1</v>
-      </c>
-      <c r="D189" t="n">
-        <v>2</v>
-      </c>
-      <c r="E189" t="n">
-        <v>3</v>
-      </c>
-      <c r="F189" t="n">
-        <v>5</v>
-      </c>
-      <c r="G189" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4381,21 +2881,9 @@
         </is>
       </c>
       <c r="B190" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C190" t="n">
-        <v>1</v>
-      </c>
-      <c r="D190" t="n">
-        <v>1</v>
-      </c>
-      <c r="E190" t="n">
-        <v>1</v>
-      </c>
-      <c r="F190" t="n">
-        <v>5</v>
-      </c>
-      <c r="G190" t="n">
         <v>1</v>
       </c>
     </row>

--- a/excel-sheets/updated-arm-study-data2.xlsx
+++ b/excel-sheets/updated-arm-study-data2.xlsx
@@ -415,7 +415,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,10 +437,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>10</v>
-      </c>
-      <c r="G2" t="n">
-        <v>10</v>
+        <v>6500</v>
       </c>
     </row>
     <row r="3">
@@ -449,23 +446,8 @@
           <t>1_PS1</t>
         </is>
       </c>
-      <c r="B3" t="n">
-        <v>75000</v>
-      </c>
-      <c r="C3" t="n">
-        <v>50</v>
-      </c>
-      <c r="D3" t="n">
-        <v>125</v>
-      </c>
-      <c r="E3" t="n">
-        <v>1200</v>
-      </c>
       <c r="F3" t="n">
-        <v>10</v>
-      </c>
-      <c r="G3" t="n">
-        <v>10</v>
+        <v>2750</v>
       </c>
     </row>
     <row r="4">
@@ -474,23 +456,8 @@
           <t>2_PS1</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>50000</v>
-      </c>
-      <c r="C4" t="n">
-        <v>40</v>
-      </c>
-      <c r="D4" t="n">
-        <v>250</v>
-      </c>
-      <c r="E4" t="n">
-        <v>1500</v>
-      </c>
       <c r="F4" t="n">
-        <v>10</v>
-      </c>
-      <c r="G4" t="n">
-        <v>10</v>
+        <v>3100</v>
       </c>
     </row>
     <row r="5">
@@ -499,23 +466,8 @@
           <t>3_PS1</t>
         </is>
       </c>
-      <c r="B5" t="n">
-        <v>50000</v>
-      </c>
-      <c r="C5" t="n">
-        <v>40</v>
-      </c>
-      <c r="D5" t="n">
-        <v>75</v>
-      </c>
-      <c r="E5" t="n">
-        <v>1000</v>
-      </c>
       <c r="F5" t="n">
-        <v>10</v>
-      </c>
-      <c r="G5" t="n">
-        <v>10</v>
+        <v>2800</v>
       </c>
     </row>
     <row r="6">
@@ -524,23 +476,8 @@
           <t>4_PS1</t>
         </is>
       </c>
-      <c r="B6" t="n">
-        <v>70000</v>
-      </c>
-      <c r="C6" t="n">
-        <v>40</v>
-      </c>
-      <c r="D6" t="n">
-        <v>150</v>
-      </c>
-      <c r="E6" t="n">
-        <v>1500</v>
-      </c>
       <c r="F6" t="n">
-        <v>10</v>
-      </c>
-      <c r="G6" t="n">
-        <v>10</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="7">
@@ -549,23 +486,8 @@
           <t>5_PS1</t>
         </is>
       </c>
-      <c r="B7" t="n">
-        <v>50000</v>
-      </c>
-      <c r="C7" t="n">
-        <v>40</v>
-      </c>
-      <c r="D7" t="n">
-        <v>150</v>
-      </c>
-      <c r="E7" t="n">
-        <v>1500</v>
-      </c>
       <c r="F7" t="n">
-        <v>10</v>
-      </c>
-      <c r="G7" t="n">
-        <v>10</v>
+        <v>3400</v>
       </c>
     </row>
     <row r="8">
@@ -574,23 +496,8 @@
           <t>6_PS1</t>
         </is>
       </c>
-      <c r="B8" t="n">
-        <v>50000</v>
-      </c>
-      <c r="C8" t="n">
-        <v>40</v>
-      </c>
-      <c r="D8" t="n">
-        <v>175</v>
-      </c>
-      <c r="E8" t="n">
-        <v>1700</v>
-      </c>
       <c r="F8" t="n">
-        <v>10</v>
-      </c>
-      <c r="G8" t="n">
-        <v>10</v>
+        <v>3900</v>
       </c>
     </row>
     <row r="9">
@@ -599,23 +506,8 @@
           <t>7_PS1</t>
         </is>
       </c>
-      <c r="B9" t="n">
-        <v>60000</v>
-      </c>
-      <c r="C9" t="n">
-        <v>50</v>
-      </c>
-      <c r="D9" t="n">
-        <v>200</v>
-      </c>
-      <c r="E9" t="n">
-        <v>2000</v>
-      </c>
       <c r="F9" t="n">
-        <v>10</v>
-      </c>
-      <c r="G9" t="n">
-        <v>10</v>
+        <v>2100</v>
       </c>
     </row>
     <row r="10">
@@ -624,23 +516,11 @@
           <t>8_PS1</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>60000</v>
-      </c>
-      <c r="C10" t="n">
-        <v>50</v>
-      </c>
-      <c r="D10" t="n">
-        <v>150</v>
-      </c>
-      <c r="E10" t="n">
-        <v>2000</v>
-      </c>
       <c r="F10" t="n">
-        <v>10</v>
+        <v>3300</v>
       </c>
       <c r="G10" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11">
@@ -649,23 +529,11 @@
           <t>9_PS1</t>
         </is>
       </c>
-      <c r="B11" t="n">
-        <v>30000</v>
-      </c>
-      <c r="C11" t="n">
-        <v>50</v>
-      </c>
-      <c r="D11" t="n">
-        <v>175</v>
-      </c>
-      <c r="E11" t="n">
-        <v>2000</v>
-      </c>
       <c r="F11" t="n">
-        <v>10</v>
-      </c>
-      <c r="G11" t="n">
-        <v>10</v>
+        <v>2400</v>
+      </c>
+      <c r="H11" t="n">
+        <v>1000</v>
       </c>
     </row>
   </sheetData>

--- a/excel-sheets/updated-arm-study-data2.xlsx
+++ b/excel-sheets/updated-arm-study-data2.xlsx
@@ -415,7 +415,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,8 +436,35 @@
           <t>Q53</t>
         </is>
       </c>
+      <c r="B2" t="n">
+        <v>12000</v>
+      </c>
+      <c r="C2" t="n">
+        <v>200</v>
+      </c>
+      <c r="D2" t="n">
+        <v>500</v>
+      </c>
+      <c r="E2" t="n">
+        <v>3500</v>
+      </c>
       <c r="F2" t="n">
-        <v>6500</v>
+        <v>1200</v>
+      </c>
+      <c r="G2" t="n">
+        <v>3000</v>
+      </c>
+      <c r="H2" t="n">
+        <v>25000</v>
+      </c>
+      <c r="I2" t="n">
+        <v>150</v>
+      </c>
+      <c r="J2" t="n">
+        <v>700</v>
+      </c>
+      <c r="K2" t="n">
+        <v>200</v>
       </c>
     </row>
     <row r="3">
@@ -446,8 +473,35 @@
           <t>1_PS1</t>
         </is>
       </c>
+      <c r="B3" t="n">
+        <v>20000</v>
+      </c>
+      <c r="C3" t="n">
+        <v>200</v>
+      </c>
+      <c r="D3" t="n">
+        <v>190</v>
+      </c>
+      <c r="E3" t="n">
+        <v>2500</v>
+      </c>
       <c r="F3" t="n">
-        <v>2750</v>
+        <v>1200</v>
+      </c>
+      <c r="G3" t="n">
+        <v>2500</v>
+      </c>
+      <c r="H3" t="n">
+        <v>35000</v>
+      </c>
+      <c r="I3" t="n">
+        <v>150</v>
+      </c>
+      <c r="J3" t="n">
+        <v>500</v>
+      </c>
+      <c r="K3" t="n">
+        <v>250</v>
       </c>
     </row>
     <row r="4">
@@ -456,8 +510,35 @@
           <t>2_PS1</t>
         </is>
       </c>
+      <c r="B4" t="n">
+        <v>18000</v>
+      </c>
+      <c r="C4" t="n">
+        <v>200</v>
+      </c>
+      <c r="D4" t="n">
+        <v>250</v>
+      </c>
+      <c r="E4" t="n">
+        <v>2400</v>
+      </c>
       <c r="F4" t="n">
-        <v>3100</v>
+        <v>1200</v>
+      </c>
+      <c r="G4" t="n">
+        <v>2000</v>
+      </c>
+      <c r="H4" t="n">
+        <v>15000</v>
+      </c>
+      <c r="I4" t="n">
+        <v>150</v>
+      </c>
+      <c r="J4" t="n">
+        <v>700</v>
+      </c>
+      <c r="K4" t="n">
+        <v>200</v>
       </c>
     </row>
     <row r="5">
@@ -466,8 +547,35 @@
           <t>3_PS1</t>
         </is>
       </c>
+      <c r="B5" t="n">
+        <v>10000</v>
+      </c>
+      <c r="C5" t="n">
+        <v>200</v>
+      </c>
+      <c r="D5" t="n">
+        <v>250</v>
+      </c>
+      <c r="E5" t="n">
+        <v>2600</v>
+      </c>
       <c r="F5" t="n">
-        <v>2800</v>
+        <v>1200</v>
+      </c>
+      <c r="G5" t="n">
+        <v>2500</v>
+      </c>
+      <c r="H5" t="n">
+        <v>30000</v>
+      </c>
+      <c r="I5" t="n">
+        <v>150</v>
+      </c>
+      <c r="J5" t="n">
+        <v>650</v>
+      </c>
+      <c r="K5" t="n">
+        <v>300</v>
       </c>
     </row>
     <row r="6">
@@ -476,8 +584,35 @@
           <t>4_PS1</t>
         </is>
       </c>
+      <c r="B6" t="n">
+        <v>15000</v>
+      </c>
+      <c r="C6" t="n">
+        <v>175</v>
+      </c>
+      <c r="D6" t="n">
+        <v>200</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1800</v>
+      </c>
       <c r="F6" t="n">
-        <v>4000</v>
+        <v>1299</v>
+      </c>
+      <c r="G6" t="n">
+        <v>2000</v>
+      </c>
+      <c r="H6" t="n">
+        <v>15000</v>
+      </c>
+      <c r="I6" t="n">
+        <v>150</v>
+      </c>
+      <c r="J6" t="n">
+        <v>650</v>
+      </c>
+      <c r="K6" t="n">
+        <v>250</v>
       </c>
     </row>
     <row r="7">
@@ -486,8 +621,35 @@
           <t>5_PS1</t>
         </is>
       </c>
+      <c r="B7" t="n">
+        <v>15000</v>
+      </c>
+      <c r="C7" t="n">
+        <v>175</v>
+      </c>
+      <c r="D7" t="n">
+        <v>190</v>
+      </c>
+      <c r="E7" t="n">
+        <v>2300</v>
+      </c>
       <c r="F7" t="n">
-        <v>3400</v>
+        <v>1200</v>
+      </c>
+      <c r="G7" t="n">
+        <v>3500</v>
+      </c>
+      <c r="H7" t="n">
+        <v>25000</v>
+      </c>
+      <c r="I7" t="n">
+        <v>150</v>
+      </c>
+      <c r="J7" t="n">
+        <v>650</v>
+      </c>
+      <c r="K7" t="n">
+        <v>200</v>
       </c>
     </row>
     <row r="8">
@@ -496,8 +658,35 @@
           <t>6_PS1</t>
         </is>
       </c>
+      <c r="B8" t="n">
+        <v>10000</v>
+      </c>
+      <c r="C8" t="n">
+        <v>200</v>
+      </c>
+      <c r="D8" t="n">
+        <v>200</v>
+      </c>
+      <c r="E8" t="n">
+        <v>2200</v>
+      </c>
       <c r="F8" t="n">
-        <v>3900</v>
+        <v>1200</v>
+      </c>
+      <c r="G8" t="n">
+        <v>2000</v>
+      </c>
+      <c r="H8" t="n">
+        <v>30000</v>
+      </c>
+      <c r="I8" t="n">
+        <v>150</v>
+      </c>
+      <c r="J8" t="n">
+        <v>700</v>
+      </c>
+      <c r="K8" t="n">
+        <v>250</v>
       </c>
     </row>
     <row r="9">
@@ -506,8 +695,35 @@
           <t>7_PS1</t>
         </is>
       </c>
+      <c r="B9" t="n">
+        <v>15000</v>
+      </c>
+      <c r="C9" t="n">
+        <v>200</v>
+      </c>
+      <c r="D9" t="n">
+        <v>200</v>
+      </c>
+      <c r="E9" t="n">
+        <v>2000</v>
+      </c>
       <c r="F9" t="n">
-        <v>2100</v>
+        <v>1300</v>
+      </c>
+      <c r="G9" t="n">
+        <v>4500</v>
+      </c>
+      <c r="H9" t="n">
+        <v>30000</v>
+      </c>
+      <c r="I9" t="n">
+        <v>150</v>
+      </c>
+      <c r="J9" t="n">
+        <v>600</v>
+      </c>
+      <c r="K9" t="n">
+        <v>250</v>
       </c>
     </row>
     <row r="10">
@@ -516,11 +732,35 @@
           <t>8_PS1</t>
         </is>
       </c>
+      <c r="B10" t="n">
+        <v>10000</v>
+      </c>
+      <c r="C10" t="n">
+        <v>250</v>
+      </c>
+      <c r="D10" t="n">
+        <v>200</v>
+      </c>
+      <c r="E10" t="n">
+        <v>2800</v>
+      </c>
       <c r="F10" t="n">
-        <v>3300</v>
+        <v>1300</v>
       </c>
       <c r="G10" t="n">
-        <v>20</v>
+        <v>4000</v>
+      </c>
+      <c r="H10" t="n">
+        <v>20000</v>
+      </c>
+      <c r="I10" t="n">
+        <v>175</v>
+      </c>
+      <c r="J10" t="n">
+        <v>800</v>
+      </c>
+      <c r="K10" t="n">
+        <v>300</v>
       </c>
     </row>
     <row r="11">
@@ -529,11 +769,35 @@
           <t>9_PS1</t>
         </is>
       </c>
+      <c r="B11" t="n">
+        <v>10000</v>
+      </c>
+      <c r="C11" t="n">
+        <v>230</v>
+      </c>
+      <c r="D11" t="n">
+        <v>250</v>
+      </c>
+      <c r="E11" t="n">
+        <v>2400</v>
+      </c>
       <c r="F11" t="n">
-        <v>2400</v>
+        <v>1200</v>
+      </c>
+      <c r="G11" t="n">
+        <v>4000</v>
       </c>
       <c r="H11" t="n">
-        <v>1000</v>
+        <v>25000</v>
+      </c>
+      <c r="I11" t="n">
+        <v>150</v>
+      </c>
+      <c r="J11" t="n">
+        <v>600</v>
+      </c>
+      <c r="K11" t="n">
+        <v>300</v>
       </c>
     </row>
   </sheetData>
